--- a/doc/tables/cumulative-results.xlsx
+++ b/doc/tables/cumulative-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasb\Documents\Ausbildung\Bachelor\trading-strategies-implementations\doc\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73002E9F-30E6-4402-B30D-A9AA3CB5EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918CD27-7756-4E98-8A23-D5B3165CAA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6221382D-60C5-4D92-92DD-383FD97AE6FF}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6221382D-60C5-4D92-92DD-383FD97AE6FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Strategy</t>
   </si>
@@ -59,19 +59,30 @@
     <t>Win Ratio</t>
   </si>
   <si>
-    <t>Regression AI Strategy</t>
-  </si>
-  <si>
-    <t>Classification AI Strategy</t>
-  </si>
-  <si>
-    <t>Dual Simple Moving Average Strategy</t>
-  </si>
-  <si>
-    <t>Triple Exponential Moving Average Strategy</t>
-  </si>
-  <si>
-    <t>Bollinger Bands Strategy</t>
+    <t>Number of Trades</t>
+  </si>
+  <si>
+    <t>Maximum Gain</t>
+  </si>
+  <si>
+    <t>Maximum Loss</t>
+  </si>
+  <si>
+    <t>Profits Std.</t>
+  </si>
+  <si>
+    <t>Classification
+AI</t>
+  </si>
+  <si>
+    <t>Dual SMA</t>
+  </si>
+  <si>
+    <t>Triple EMA</t>
+  </si>
+  <si>
+    <t>Bollinger
+Bands</t>
   </si>
 </sst>
 </file>
@@ -95,10 +106,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -107,19 +127,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,79 +485,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCF39DE-ECF9-45F4-89CD-6A75B441B35A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="4"/>
+    <col min="2" max="6" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2">
+        <v>267</v>
+      </c>
+      <c r="D2">
+        <v>3473</v>
+      </c>
+      <c r="E2">
+        <v>870</v>
+      </c>
+      <c r="F2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3">
+        <v>956</v>
+      </c>
+      <c r="D3">
+        <v>357</v>
+      </c>
+      <c r="E3">
+        <v>875</v>
+      </c>
+      <c r="F3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4">
+        <v>-245</v>
+      </c>
+      <c r="D4">
+        <v>-160</v>
+      </c>
+      <c r="E4">
+        <v>-135</v>
+      </c>
+      <c r="F4">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-2404</v>
+      </c>
+      <c r="D6">
+        <v>-23</v>
+      </c>
+      <c r="E6">
+        <v>-75</v>
+      </c>
+      <c r="F6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>57908</v>
+      </c>
+      <c r="D7">
+        <v>15510</v>
+      </c>
+      <c r="E7">
+        <v>10717</v>
+      </c>
+      <c r="F7">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>55567</v>
+      </c>
+      <c r="D8">
+        <v>15159</v>
+      </c>
+      <c r="E8">
+        <v>9502</v>
+      </c>
+      <c r="F8">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>126</v>
+      </c>
+      <c r="F9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="B10" s="8"/>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
